--- a/10 - Projeto Gloq Telegram/cardapio.xlsx
+++ b/10 - Projeto Gloq Telegram/cardapio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Info\OneDrive\Área de Trabalho\Diretorios\CyberEdux\Python\cyberedux\10 - Projeto Gloq Telegram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275B142-63BA-4CD2-80CC-4A404D0E40A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E25FA09-4EE8-4BFC-BBA3-2E4F5B00451C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,32 +22,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>baguncinha simples</t>
-  </si>
-  <si>
     <t>xsalada</t>
   </si>
   <si>
-    <t>refrigerante</t>
+    <t>refrigerante 2 litros</t>
   </si>
   <si>
-    <t>ovos</t>
+    <t>suco de laranja</t>
+  </si>
+  <si>
+    <t>baguncinha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,9 +67,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,61 +371,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
